--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrkoci/Documents/code/jamboree/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3822B203-11AD-4E49-AA4A-08D0F5994E45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B4C9EE-D771-FC44-BB87-B25E061CB496}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,9 +517,6 @@
     <t>AGSdC-CL</t>
   </si>
   <si>
-    <t>Scouts of China</t>
-  </si>
-  <si>
     <t>The General Association of the Scouts of China</t>
   </si>
   <si>
@@ -2042,6 +2039,9 @@
   </si>
   <si>
     <t>TSAZ-ZW</t>
+  </si>
+  <si>
+    <t>China</t>
   </si>
 </sst>
 </file>
@@ -2527,10 +2527,10 @@
   <dimension ref="A1:AP230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -6596,16 +6596,16 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>673</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="E43" s="6">
         <v>2017</v>
@@ -6706,16 +6706,16 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="E44" s="6">
         <v>2017</v>
@@ -6816,16 +6816,16 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="E45" s="6">
         <v>2017</v>
@@ -6909,7 +6909,7 @@
         <v>2595</v>
       </c>
       <c r="AF45" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG45" s="34">
         <v>1725</v>
@@ -6926,16 +6926,16 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="E46" s="6">
         <v>2017</v>
@@ -7036,16 +7036,16 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="E47" s="6">
         <v>2017</v>
@@ -7146,16 +7146,16 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="E48" s="6">
         <v>2017</v>
@@ -7256,16 +7256,16 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="E49" s="6">
         <v>2017</v>
@@ -7360,16 +7360,16 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="E50" s="6">
         <v>2017</v>
@@ -7470,16 +7470,16 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="E51" s="6">
         <v>2017</v>
@@ -7580,16 +7580,16 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="E52" s="6">
         <v>2017</v>
@@ -7690,16 +7690,16 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="E53" s="6">
         <v>2015</v>
@@ -7779,16 +7779,16 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="E54" s="6">
         <v>2017</v>
@@ -7889,16 +7889,16 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="E55" s="6">
         <v>2017</v>
@@ -7999,16 +7999,16 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="E56" s="6">
         <v>2014</v>
@@ -8109,16 +8109,16 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="E57" s="6">
         <v>2014</v>
@@ -8219,16 +8219,16 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="E58" s="6">
         <v>2015</v>
@@ -8323,16 +8323,16 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="E59" s="6">
         <v>2014</v>
@@ -8433,16 +8433,16 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="E60" s="6">
         <v>2014</v>
@@ -8543,16 +8543,16 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="E61" s="6">
         <v>2001</v>
@@ -8636,7 +8636,7 @@
         <v>133</v>
       </c>
       <c r="AF61" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG61" s="34">
         <v>130</v>
@@ -8653,16 +8653,16 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="E62" s="6">
         <v>1987</v>
@@ -8746,7 +8746,7 @@
         <v>1100</v>
       </c>
       <c r="AF62" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG62" s="34">
         <v>1100</v>
@@ -8763,16 +8763,16 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="E63" s="6">
         <v>2016</v>
@@ -8873,16 +8873,16 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="E64" s="6">
         <v>2016</v>
@@ -8983,16 +8983,16 @@
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="E65" s="6">
         <v>2010</v>
@@ -9093,16 +9093,16 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="E66" s="6">
         <v>2018</v>
@@ -9203,16 +9203,16 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="E67" s="6">
         <v>2017</v>
@@ -9313,16 +9313,16 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="E68" s="6">
         <v>2018</v>
@@ -9423,16 +9423,16 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="E69" s="6">
         <v>2014</v>
@@ -9515,16 +9515,16 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="E70" s="6">
         <v>2017</v>
@@ -9625,16 +9625,16 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="E71" s="6">
         <v>2017</v>
@@ -9735,16 +9735,16 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="E72" s="6">
         <v>2018</v>
@@ -9828,7 +9828,7 @@
         <v>17694</v>
       </c>
       <c r="AF72" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG72" s="34">
         <v>0</v>
@@ -9845,16 +9845,16 @@
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="E73" s="6">
         <v>2009</v>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="AF73" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG73" s="34">
         <v>0</v>
@@ -9955,16 +9955,16 @@
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="E74" s="6">
         <v>2017</v>
@@ -10048,7 +10048,7 @@
         <v>3073</v>
       </c>
       <c r="AF74" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG74" s="34">
         <v>0</v>
@@ -10065,16 +10065,16 @@
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="E75" s="6">
         <v>2017</v>
@@ -10158,7 +10158,7 @@
         <v>79135</v>
       </c>
       <c r="AF75" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG75" s="34">
         <v>0</v>
@@ -10175,16 +10175,16 @@
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="E76" s="6">
         <v>2009</v>
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="AF76" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG76" s="34">
         <v>0</v>
@@ -10285,16 +10285,16 @@
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="E77" s="6">
         <v>2017</v>
@@ -10365,16 +10365,16 @@
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="E78" s="6">
         <v>2004</v>
@@ -10475,58 +10475,58 @@
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="E82" s="6">
         <v>2016</v>
@@ -10627,16 +10627,16 @@
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="E83" s="6">
         <v>2015</v>
@@ -10737,16 +10737,16 @@
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="E84" s="6">
         <v>2017</v>
@@ -10763,16 +10763,16 @@
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="E85" s="6">
         <v>2017</v>
@@ -10873,16 +10873,16 @@
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="E86" s="6">
         <v>2017</v>
@@ -10983,16 +10983,16 @@
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="E87" s="6">
         <v>2017</v>
@@ -11093,16 +11093,16 @@
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="E88" s="6">
         <v>2017</v>
@@ -11186,7 +11186,7 @@
         <v>8543</v>
       </c>
       <c r="AF88" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG88" s="34">
         <v>3818</v>
@@ -11203,16 +11203,16 @@
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="E89" s="6">
         <v>2017</v>
@@ -11313,16 +11313,16 @@
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="E90" s="6">
         <v>2007</v>
@@ -11406,7 +11406,7 @@
         <v>1378</v>
       </c>
       <c r="AF90" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG90" s="34">
         <v>1367</v>
@@ -11423,16 +11423,16 @@
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C91" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="E91" s="6">
         <v>2016</v>
@@ -11533,16 +11533,16 @@
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="E92" s="6">
         <v>2016</v>
@@ -11631,16 +11631,16 @@
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="E93" s="6">
         <v>2016</v>
@@ -11696,16 +11696,16 @@
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="E94" s="6">
         <v>2001</v>
@@ -11789,7 +11789,7 @@
         <v>424</v>
       </c>
       <c r="AF94" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG94" s="34">
         <v>399</v>
@@ -11806,16 +11806,16 @@
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="E95" s="6">
         <v>2007</v>
@@ -11899,7 +11899,7 @@
         <v>43618</v>
       </c>
       <c r="AF95" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG95" s="34">
         <v>43605</v>
@@ -11916,16 +11916,16 @@
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="E96" s="6">
         <v>2017</v>
@@ -12026,16 +12026,16 @@
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="E97" s="6">
         <v>2017</v>
@@ -12136,16 +12136,16 @@
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="E98" s="6">
         <v>2017</v>
@@ -12240,16 +12240,16 @@
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="E99" s="6">
         <v>2015</v>
@@ -12350,16 +12350,16 @@
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="E100" s="6">
         <v>2017</v>
@@ -12460,16 +12460,16 @@
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="E101" s="6">
         <v>2012</v>
@@ -12553,7 +12553,7 @@
         <v>21842404</v>
       </c>
       <c r="AF101" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG101" s="34">
         <v>21599748</v>
@@ -12570,16 +12570,16 @@
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>330</v>
       </c>
       <c r="E102" s="6">
         <v>2017</v>
@@ -12647,16 +12647,16 @@
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="E103" s="6">
         <v>2017</v>
@@ -12757,16 +12757,16 @@
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="E104" s="6">
         <v>2017</v>
@@ -12867,16 +12867,16 @@
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="E105" s="6">
         <v>2017</v>
@@ -12890,86 +12890,86 @@
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D110" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C111" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="E111" s="6">
         <v>2017</v>
@@ -13070,16 +13070,16 @@
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="E112" s="6">
         <v>2017</v>
@@ -13180,16 +13180,16 @@
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="E113" s="6">
         <v>2017</v>
@@ -13290,16 +13290,16 @@
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="E114" s="6">
         <v>2017</v>
@@ -13400,16 +13400,16 @@
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="E115" s="6">
         <v>2018</v>
@@ -13510,16 +13510,16 @@
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="E116" s="6">
         <v>2010</v>
@@ -13620,16 +13620,16 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C117" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>367</v>
       </c>
       <c r="E117" s="6">
         <v>2017</v>
@@ -13724,16 +13724,16 @@
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C118" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>370</v>
       </c>
       <c r="E118" s="6">
         <v>2017</v>
@@ -13834,16 +13834,16 @@
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C119" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>373</v>
       </c>
       <c r="E119" s="6">
         <v>2010</v>
@@ -13944,16 +13944,16 @@
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C120" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="E120" s="6">
         <v>2017</v>
@@ -14054,16 +14054,16 @@
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="E121" s="6">
         <v>2010</v>
@@ -14164,16 +14164,16 @@
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="E122" s="6">
         <v>2017</v>
@@ -14274,16 +14274,16 @@
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C123" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="E123" s="6">
         <v>2016</v>
@@ -14384,16 +14384,16 @@
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="E124" s="6">
         <v>2017</v>
@@ -14494,16 +14494,16 @@
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C125" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="E125" s="6">
         <v>2017</v>
@@ -14587,7 +14587,7 @@
         <v>5758</v>
       </c>
       <c r="AF125" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG125" s="34">
         <v>2418</v>
@@ -14604,16 +14604,16 @@
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C126" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>394</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>395</v>
       </c>
       <c r="E126" s="6">
         <v>2013</v>
@@ -14714,16 +14714,16 @@
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C127" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="E127" s="6">
         <v>2017</v>
@@ -14824,16 +14824,16 @@
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C128" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="E128" s="6">
         <v>2017</v>
@@ -14934,16 +14934,16 @@
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C129" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="E129" s="6">
         <v>2017</v>
@@ -14975,16 +14975,16 @@
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C130" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="E130" s="6">
         <v>2017</v>
@@ -15079,16 +15079,16 @@
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C131" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="E131" s="6">
         <v>2017</v>
@@ -15171,16 +15171,16 @@
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="E132" s="6">
         <v>2014</v>
@@ -15239,16 +15239,16 @@
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C133" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="E133" s="6">
         <v>2017</v>
@@ -15349,16 +15349,16 @@
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C134" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="E134" s="6">
         <v>1999</v>
@@ -15439,7 +15439,7 @@
         <v>0</v>
       </c>
       <c r="AF134" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG134" s="34">
         <v>0</v>
@@ -15456,16 +15456,16 @@
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C135" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D135" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="E135" s="6">
         <v>1999</v>
@@ -15549,7 +15549,7 @@
         <v>3038</v>
       </c>
       <c r="AF135" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG135" s="34">
         <v>3021</v>
@@ -15566,16 +15566,16 @@
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C136" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>422</v>
       </c>
       <c r="E136" s="6">
         <v>2011</v>
@@ -15676,16 +15676,16 @@
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C137" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D137" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="E137" s="6">
         <v>2013</v>
@@ -15786,16 +15786,16 @@
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C138" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>427</v>
       </c>
       <c r="E138" s="6">
         <v>2017</v>
@@ -15878,16 +15878,16 @@
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C139" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="E139" s="6">
         <v>2014</v>
@@ -15988,16 +15988,16 @@
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C140" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D140" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="E140" s="6">
         <v>2014</v>
@@ -16098,16 +16098,16 @@
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C141" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D141" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="E141" s="6">
         <v>2014</v>
@@ -16208,16 +16208,16 @@
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C142" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>439</v>
       </c>
       <c r="E142" s="6">
         <v>1999</v>
@@ -16301,7 +16301,7 @@
         <v>3790</v>
       </c>
       <c r="AF142" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG142" s="34">
         <v>3724</v>
@@ -16318,16 +16318,16 @@
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C143" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="E143" s="6">
         <v>2017</v>
@@ -16428,16 +16428,16 @@
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C144" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>444</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>445</v>
       </c>
       <c r="E144" s="6">
         <v>2017</v>
@@ -16538,16 +16538,16 @@
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C145" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="E145" s="6">
         <v>2016</v>
@@ -16642,16 +16642,16 @@
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C146" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D146" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>451</v>
       </c>
       <c r="E146" s="6">
         <v>2017</v>
@@ -16752,16 +16752,16 @@
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C147" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D147" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>454</v>
       </c>
       <c r="E147" s="6">
         <v>2012</v>
@@ -16845,7 +16845,7 @@
         <v>10445</v>
       </c>
       <c r="AF147" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG147" s="34">
         <v>10445</v>
@@ -16862,16 +16862,16 @@
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C148" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D148" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="E148" s="6">
         <v>2017</v>
@@ -16972,16 +16972,16 @@
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C149" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>459</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>460</v>
       </c>
       <c r="E149" s="6">
         <v>1988</v>
@@ -17065,7 +17065,7 @@
         <v>12304</v>
       </c>
       <c r="AF149" s="33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG149" s="34">
         <v>12304</v>
@@ -17082,16 +17082,16 @@
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C150" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D150" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>464</v>
       </c>
       <c r="E150" s="6">
         <v>2017</v>
@@ -17169,7 +17169,7 @@
         <v>30555</v>
       </c>
       <c r="AF150" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG150" s="34">
         <v>21487</v>
@@ -17186,16 +17186,16 @@
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C151" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="E151" s="6">
         <v>2015</v>
@@ -17242,16 +17242,16 @@
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C152" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D152" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="E152" s="6">
         <v>2015</v>
@@ -17346,16 +17346,16 @@
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C153" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D153" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>473</v>
       </c>
       <c r="E153" s="6">
         <v>2016</v>
@@ -17456,16 +17456,16 @@
     </row>
     <row r="154" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C154" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D154" s="5" t="s">
         <v>475</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>476</v>
       </c>
       <c r="E154" s="6">
         <v>2016</v>
@@ -17563,16 +17563,16 @@
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C155" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D155" s="5" t="s">
         <v>478</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>479</v>
       </c>
       <c r="E155" s="6">
         <v>2017</v>
@@ -17658,16 +17658,16 @@
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C156" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>482</v>
       </c>
       <c r="E156" s="6">
         <v>2017</v>
@@ -17768,16 +17768,16 @@
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C157" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="E157" s="6">
         <v>2010</v>
@@ -17878,16 +17878,16 @@
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C158" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>488</v>
       </c>
       <c r="E158" s="6">
         <v>2015</v>
@@ -17982,16 +17982,16 @@
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C159" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D159" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="E159" s="6">
         <v>2016</v>
@@ -18092,16 +18092,16 @@
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C160" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D160" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>493</v>
       </c>
       <c r="E160" s="6">
         <v>2017</v>
@@ -18202,16 +18202,16 @@
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C161" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D161" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="E161" s="6">
         <v>2017</v>
@@ -18312,16 +18312,16 @@
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C162" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D162" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="E162" s="6">
         <v>2017</v>
@@ -18405,7 +18405,7 @@
         <v>21234</v>
       </c>
       <c r="AF162" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG162" s="34">
         <v>20330</v>
@@ -18422,16 +18422,16 @@
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C163" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D163" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="E163" s="6">
         <v>2015</v>
@@ -18532,16 +18532,16 @@
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C164" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D164" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="E164" s="6">
         <v>2013</v>
@@ -18642,16 +18642,16 @@
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C165" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D165" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="E165" s="6">
         <v>2017</v>
@@ -18752,16 +18752,16 @@
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C166" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="E166" s="6">
         <v>2014</v>
@@ -18856,16 +18856,16 @@
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C167" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="E167" s="6">
         <v>2014</v>
@@ -18966,16 +18966,16 @@
     </row>
     <row r="168" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C168" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="E168" s="6">
         <v>2015</v>
@@ -19076,16 +19076,16 @@
     </row>
     <row r="169" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C169" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D169" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>519</v>
       </c>
       <c r="E169" s="6">
         <v>2014</v>
@@ -19186,16 +19186,16 @@
     </row>
     <row r="170" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C170" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D170" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>522</v>
       </c>
       <c r="E170" s="6">
         <v>2016</v>
@@ -19296,16 +19296,16 @@
     </row>
     <row r="171" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C171" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D171" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>525</v>
       </c>
       <c r="E171" s="6">
         <v>2017</v>
@@ -19406,16 +19406,16 @@
     </row>
     <row r="172" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C172" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D172" s="5" t="s">
         <v>526</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>527</v>
       </c>
       <c r="E172" s="6">
         <v>2017</v>
@@ -19516,16 +19516,16 @@
     </row>
     <row r="173" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C173" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>529</v>
       </c>
       <c r="E173" s="6">
         <v>2017</v>
@@ -19626,16 +19626,16 @@
     </row>
     <row r="174" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C174" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D174" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="E174" s="6">
         <v>2012</v>
@@ -19719,7 +19719,7 @@
         <v>4566</v>
       </c>
       <c r="AF174" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG174" s="34">
         <v>4528</v>
@@ -19736,16 +19736,16 @@
     </row>
     <row r="175" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C175" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>535</v>
       </c>
       <c r="E175" s="6">
         <v>2016</v>
@@ -19846,16 +19846,16 @@
     </row>
     <row r="176" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C176" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="E176" s="6">
         <v>2016</v>
@@ -19956,16 +19956,16 @@
     </row>
     <row r="177" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C177" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="E177" s="6">
         <v>2001</v>
@@ -20049,7 +20049,7 @@
         <v>18884</v>
       </c>
       <c r="AF177" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG177" s="34">
         <v>18859</v>
@@ -20066,16 +20066,16 @@
     </row>
     <row r="178" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C178" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="E178" s="6">
         <v>1999</v>
@@ -20159,7 +20159,7 @@
         <v>393</v>
       </c>
       <c r="AF178" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG178" s="34">
         <v>355</v>
@@ -20176,16 +20176,16 @@
     </row>
     <row r="179" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C179" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D179" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>547</v>
       </c>
       <c r="E179" s="6">
         <v>2014</v>
@@ -20286,16 +20286,16 @@
     </row>
     <row r="180" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C180" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D180" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="E180" s="6">
         <v>2016</v>
@@ -20396,16 +20396,16 @@
     </row>
     <row r="181" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C181" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D181" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="E181" s="6">
         <v>2017</v>
@@ -20470,16 +20470,16 @@
     </row>
     <row r="182" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C182" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>556</v>
       </c>
       <c r="E182" s="6">
         <v>2017</v>
@@ -20563,7 +20563,7 @@
         <v>19371</v>
       </c>
       <c r="AF182" s="33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG182" s="34">
         <v>19260</v>
@@ -20580,16 +20580,16 @@
     </row>
     <row r="183" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C183" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>559</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>560</v>
       </c>
       <c r="E183" s="6">
         <v>2010</v>
@@ -20690,16 +20690,16 @@
     </row>
     <row r="184" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C184" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D184" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="E184" s="6">
         <v>2017</v>
@@ -20800,16 +20800,16 @@
     </row>
     <row r="185" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C185" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D185" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>564</v>
       </c>
       <c r="E185" s="6">
         <v>2010</v>
@@ -20907,16 +20907,16 @@
     </row>
     <row r="186" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C186" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="D186" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>567</v>
       </c>
       <c r="E186" s="6">
         <v>2017</v>
@@ -21017,16 +21017,16 @@
     </row>
     <row r="187" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C187" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>570</v>
       </c>
       <c r="E187" s="6">
         <v>2015</v>
@@ -21127,16 +21127,16 @@
     </row>
     <row r="188" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C188" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>572</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>573</v>
       </c>
       <c r="E188" s="6">
         <v>2017</v>
@@ -21237,16 +21237,16 @@
     </row>
     <row r="189" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C189" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D189" s="5" t="s">
         <v>575</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>576</v>
       </c>
       <c r="E189" s="6">
         <v>2014</v>
@@ -21347,16 +21347,16 @@
     </row>
     <row r="190" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C190" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D190" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>579</v>
       </c>
       <c r="E190" s="6">
         <v>2017</v>
@@ -21451,16 +21451,16 @@
     </row>
     <row r="191" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C191" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D191" s="5" t="s">
         <v>581</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>582</v>
       </c>
       <c r="E191" s="6">
         <v>2017</v>
@@ -21561,16 +21561,16 @@
     </row>
     <row r="192" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C192" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D192" s="5" t="s">
         <v>584</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>585</v>
       </c>
       <c r="E192" s="6">
         <v>2017</v>
@@ -21671,16 +21671,16 @@
     </row>
     <row r="193" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C193" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D193" s="5" t="s">
         <v>587</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>588</v>
       </c>
       <c r="E193" s="6">
         <v>2014</v>
@@ -21766,16 +21766,16 @@
     </row>
     <row r="194" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C194" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D194" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>591</v>
       </c>
       <c r="E194" s="6">
         <v>2016</v>
@@ -21876,16 +21876,16 @@
     </row>
     <row r="195" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C195" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D195" s="5" t="s">
         <v>592</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>593</v>
       </c>
       <c r="E195" s="6">
         <v>2017</v>
@@ -21986,16 +21986,16 @@
     </row>
     <row r="196" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C196" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="D196" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>595</v>
       </c>
       <c r="E196" s="6">
         <v>2017</v>
@@ -22093,16 +22093,16 @@
     </row>
     <row r="197" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C197" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D197" s="5" t="s">
         <v>596</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>597</v>
       </c>
       <c r="E197" s="6">
         <v>2016</v>
@@ -22185,16 +22185,16 @@
     </row>
     <row r="198" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C198" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D198" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>600</v>
       </c>
       <c r="E198" s="6">
         <v>2014</v>
@@ -22295,16 +22295,16 @@
     </row>
     <row r="199" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C199" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D199" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>603</v>
       </c>
       <c r="E199" s="6">
         <v>2010</v>
@@ -22405,16 +22405,16 @@
     </row>
     <row r="200" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C200" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D200" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>606</v>
       </c>
       <c r="E200" s="6">
         <v>2014</v>
@@ -22515,16 +22515,16 @@
     </row>
     <row r="201" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C201" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D201" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>609</v>
       </c>
       <c r="E201" s="6">
         <v>2017</v>
@@ -22605,7 +22605,7 @@
         <v>4757</v>
       </c>
       <c r="AF201" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG201" s="34">
         <v>6843</v>
@@ -22622,16 +22622,16 @@
     </row>
     <row r="202" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C202" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D202" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>612</v>
       </c>
       <c r="E202" s="6">
         <v>2017</v>
@@ -22732,16 +22732,16 @@
     </row>
     <row r="203" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C203" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D203" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>615</v>
       </c>
       <c r="E203" s="6">
         <v>2017</v>
@@ -22842,16 +22842,16 @@
     </row>
     <row r="204" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C204" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="D204" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>618</v>
       </c>
       <c r="E204" s="6">
         <v>2007</v>
@@ -22932,7 +22932,7 @@
         <v>9358</v>
       </c>
       <c r="AF204" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG204" s="34">
         <v>9260</v>
@@ -22949,16 +22949,16 @@
     </row>
     <row r="205" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C205" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D205" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>621</v>
       </c>
       <c r="E205" s="6">
         <v>2015</v>
@@ -23059,16 +23059,16 @@
     </row>
     <row r="206" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C206" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="D206" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>624</v>
       </c>
       <c r="E206" s="6">
         <v>2012</v>
@@ -23146,7 +23146,7 @@
         <v>538959</v>
       </c>
       <c r="AF206" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG206" s="34">
         <v>538933</v>
@@ -23163,16 +23163,16 @@
     </row>
     <row r="207" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C207" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D207" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="E207" s="6">
         <v>2014</v>
@@ -23273,16 +23273,16 @@
     </row>
     <row r="208" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C208" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D208" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>630</v>
       </c>
       <c r="E208" s="6">
         <v>2015</v>
@@ -23350,16 +23350,16 @@
     </row>
     <row r="209" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C209" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D209" s="5" t="s">
         <v>632</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>633</v>
       </c>
       <c r="E209" s="6">
         <v>2016</v>
@@ -23460,16 +23460,16 @@
     </row>
     <row r="210" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C210" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D210" s="5" t="s">
         <v>635</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>636</v>
       </c>
       <c r="E210" s="6">
         <v>2015</v>
@@ -23570,16 +23570,16 @@
     </row>
     <row r="211" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C211" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D211" s="5" t="s">
         <v>638</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>639</v>
       </c>
       <c r="E211" s="6">
         <v>2017</v>
@@ -23680,16 +23680,16 @@
     </row>
     <row r="212" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C212" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="D212" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>642</v>
       </c>
       <c r="E212" s="6">
         <v>2018</v>
@@ -23790,16 +23790,16 @@
     </row>
     <row r="213" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C213" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D213" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>645</v>
       </c>
       <c r="E213" s="6">
         <v>2011</v>
@@ -23900,16 +23900,16 @@
     </row>
     <row r="214" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C214" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D214" s="5" t="s">
         <v>647</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>648</v>
       </c>
       <c r="E214" s="6">
         <v>2017</v>
@@ -24004,16 +24004,16 @@
     </row>
     <row r="215" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C215" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D215" s="5" t="s">
         <v>650</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>651</v>
       </c>
       <c r="E215" s="6">
         <v>2017</v>
@@ -24114,16 +24114,16 @@
     </row>
     <row r="216" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C216" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D216" s="5" t="s">
         <v>653</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>654</v>
       </c>
       <c r="E216" s="6">
         <v>2018</v>
@@ -24218,16 +24218,16 @@
     </row>
     <row r="217" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C217" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D217" s="5" t="s">
         <v>656</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>657</v>
       </c>
       <c r="E217" s="6">
         <v>2017</v>
@@ -24328,16 +24328,16 @@
     </row>
     <row r="218" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C218" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D218" s="5" t="s">
         <v>659</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>660</v>
       </c>
       <c r="E218" s="6">
         <v>2016</v>
@@ -24438,16 +24438,16 @@
     </row>
     <row r="219" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C219" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D219" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="D219" s="5" t="s">
-        <v>663</v>
       </c>
       <c r="E219" s="6">
         <v>2017</v>
@@ -24548,16 +24548,16 @@
     </row>
     <row r="220" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C220" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D220" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>666</v>
       </c>
       <c r="E220" s="6">
         <v>1980</v>
@@ -24641,7 +24641,7 @@
         <v>6481</v>
       </c>
       <c r="AF220" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AG220" s="34">
         <v>6481</v>
@@ -24658,16 +24658,16 @@
     </row>
     <row r="221" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C221" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D221" s="5" t="s">
         <v>669</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>670</v>
       </c>
       <c r="E221" s="6">
         <v>2004</v>
@@ -24768,16 +24768,16 @@
     </row>
     <row r="222" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C222" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="D222" s="5" t="s">
         <v>672</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="E222" s="6">
         <v>2017</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrkoci/Documents/code/jamboree/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951A0B12-9997-E243-8A02-95AFD8FAD7C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F1CC2B-EF5D-8D45-B334-C36C389AEDC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="675">
   <si>
     <t>Countries::Country name option 1 E</t>
   </si>
@@ -2042,6 +2042,9 @@
   </si>
   <si>
     <t>TSAZ-ZW</t>
+  </si>
+  <si>
+    <t>Greenland</t>
   </si>
 </sst>
 </file>
@@ -2527,10 +2530,10 @@
   <dimension ref="A1:AP230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AM169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W226" sqref="W226:AM230"/>
+      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8543,7 +8546,7 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>202</v>
+        <v>674</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>63</v>
